--- a/Rabu/Statistika/Uts fix.xlsx
+++ b/Rabu/Statistika/Uts fix.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1305,9 +1306,6 @@
     <t>Jumlah</t>
   </si>
   <si>
-    <t>SR</t>
-  </si>
-  <si>
     <t>Median</t>
   </si>
   <si>
@@ -1617,6 +1615,9 @@
   </si>
   <si>
     <t>keruncingan data kelompok</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
 </sst>
 </file>
@@ -1827,15 +1828,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1859,22 +1851,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1886,20 +1869,30 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2177,8 +2170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2288,78 +2281,78 @@
       <c r="J3" s="2">
         <v>60</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="6" t="s">
+      <c r="O3" s="25"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="V3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="W3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="X3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="Y3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="Z3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="7" t="s">
+      <c r="AA3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AB3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="6" t="s">
+      <c r="AC3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AD3" s="9" t="s">
+      <c r="AD3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AE3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AF3" s="9" t="s">
+      <c r="AF3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" s="9" t="s">
+      <c r="AG3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AH3" s="9" t="s">
+      <c r="AH3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AI3" s="9" t="s">
+      <c r="AI3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AJ3" s="10" t="s">
+      <c r="AJ3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AK3" s="10" t="s">
+      <c r="AK3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AL3" s="10" t="s">
+      <c r="AL3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AM3" s="10" t="s">
+      <c r="AM3" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2394,107 +2387,107 @@
       <c r="J4" s="2">
         <v>45</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="10">
         <v>40</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="14">
         <f t="shared" ref="P4:P5" si="0">N4+9</f>
         <v>49</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="9">
         <f t="array" ref="Q4:Q9">FREQUENCY(A1:J5,P4:P9)</f>
         <v>8</v>
       </c>
-      <c r="R4" s="13">
+      <c r="R4" s="10">
         <f>N4</f>
         <v>40</v>
       </c>
-      <c r="S4" s="13">
+      <c r="S4" s="10">
         <f>P4</f>
         <v>49</v>
       </c>
-      <c r="T4" s="13">
+      <c r="T4" s="10">
         <f>N4-0.5</f>
         <v>39.5</v>
       </c>
-      <c r="U4" s="13">
+      <c r="U4" s="10">
         <f>P4+0.5</f>
         <v>49.5</v>
       </c>
-      <c r="V4" s="13">
+      <c r="V4" s="10">
         <f>SUMIF($N$4:$N$9,"&lt;="&amp;N4,$Q$4:$Q$9)</f>
         <v>8</v>
       </c>
-      <c r="W4" s="14">
+      <c r="W4" s="11">
         <f>Q4/$Q$10*100%</f>
         <v>0.16</v>
       </c>
-      <c r="X4" s="13">
+      <c r="X4" s="10">
         <f>SUMIF($N$4:$N$9,"&lt;"&amp;N4,$Q$4:$Q$9)</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="13">
+      <c r="Y4" s="10">
         <f>SUMIF($N$4:$N$9,"&gt;="&amp;N4,$Q$4:$Q$9)</f>
         <v>50</v>
       </c>
-      <c r="Z4" s="14">
+      <c r="Z4" s="11">
         <f>SUMIF($N$4:$N$9,"&lt;"&amp;N4,$W$4:$W$9)</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="14">
+      <c r="AA4" s="11">
         <f>SUMIF($N$4:$N$9,"&gt;="&amp;N4,$W$4:$W$9)</f>
         <v>1</v>
       </c>
-      <c r="AB4" s="13">
+      <c r="AB4" s="10">
         <f>(N4+P4)/2</f>
         <v>44.5</v>
       </c>
-      <c r="AC4" s="13">
+      <c r="AC4" s="10">
         <f>Q4*AB4</f>
         <v>356</v>
       </c>
-      <c r="AD4" s="13">
-        <f>$AC$10/$Q$12</f>
-        <v>50</v>
-      </c>
-      <c r="AE4" s="13">
+      <c r="AD4" s="10">
+        <f t="shared" ref="AD4:AD8" si="1">$AC$10/$Q$10</f>
+        <v>66.3</v>
+      </c>
+      <c r="AE4" s="10">
         <f>AB4-AD4</f>
-        <v>-5.5</v>
-      </c>
-      <c r="AF4" s="11">
+        <v>-21.799999999999997</v>
+      </c>
+      <c r="AF4" s="8">
         <f>ABS(AE4)</f>
-        <v>5.5</v>
-      </c>
-      <c r="AG4" s="13">
-        <f t="shared" ref="AG4:AG9" si="1">Q4*AF4</f>
-        <v>44</v>
-      </c>
-      <c r="AH4" s="13">
+        <v>21.799999999999997</v>
+      </c>
+      <c r="AG4" s="10">
+        <f t="shared" ref="AG4:AG9" si="2">Q4*AF4</f>
+        <v>174.39999999999998</v>
+      </c>
+      <c r="AH4" s="10">
         <f>AF4^2</f>
-        <v>30.25</v>
-      </c>
-      <c r="AI4" s="13">
-        <f t="shared" ref="AI4:AI9" si="2">Q4*AH4</f>
-        <v>242</v>
-      </c>
-      <c r="AJ4" s="13">
+        <v>475.2399999999999</v>
+      </c>
+      <c r="AI4" s="10">
+        <f t="shared" ref="AI4:AI9" si="3">Q4*AH4</f>
+        <v>3801.9199999999992</v>
+      </c>
+      <c r="AJ4" s="10">
         <f>AF4^3</f>
-        <v>166.375</v>
-      </c>
-      <c r="AK4" s="13">
+        <v>10360.231999999996</v>
+      </c>
+      <c r="AK4" s="10">
         <f>Q4*AJ4</f>
-        <v>1331</v>
-      </c>
-      <c r="AL4" s="13">
+        <v>82881.855999999971</v>
+      </c>
+      <c r="AL4" s="10">
         <f>AF4^4</f>
-        <v>915.0625</v>
-      </c>
-      <c r="AM4" s="13">
+        <v>225853.05759999991</v>
+      </c>
+      <c r="AM4" s="10">
         <f>Q4*AL4</f>
-        <v>7320.5</v>
+        <v>1806824.4607999993</v>
       </c>
     </row>
     <row r="5" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
@@ -2528,214 +2521,214 @@
       <c r="J5" s="2">
         <v>85</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="12">
         <f>P4+1</f>
         <v>50</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="14">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="9">
         <v>8</v>
       </c>
-      <c r="R5" s="13">
-        <f t="shared" ref="R5:R9" si="3">N5</f>
+      <c r="R5" s="10">
+        <f t="shared" ref="R5:R9" si="4">N5</f>
         <v>50</v>
       </c>
-      <c r="S5" s="13">
-        <f t="shared" ref="S5:S9" si="4">P5</f>
+      <c r="S5" s="10">
+        <f t="shared" ref="S5:S9" si="5">P5</f>
         <v>59</v>
       </c>
-      <c r="T5" s="13">
-        <f t="shared" ref="T5:T9" si="5">N5-0.5</f>
+      <c r="T5" s="10">
+        <f t="shared" ref="T5:T9" si="6">N5-0.5</f>
         <v>49.5</v>
       </c>
-      <c r="U5" s="13">
-        <f t="shared" ref="U5:U9" si="6">P5+0.5</f>
+      <c r="U5" s="10">
+        <f t="shared" ref="U5:U9" si="7">P5+0.5</f>
         <v>59.5</v>
       </c>
-      <c r="V5" s="13">
-        <f t="shared" ref="V5:V9" si="7">SUMIF($N$4:$N$9,"&lt;="&amp;N5,$Q$4:$Q$9)</f>
+      <c r="V5" s="10">
+        <f t="shared" ref="V5:V9" si="8">SUMIF($N$4:$N$9,"&lt;="&amp;N5,$Q$4:$Q$9)</f>
         <v>16</v>
       </c>
-      <c r="W5" s="14">
-        <f t="shared" ref="W5:W9" si="8">Q5/$Q$10*100%</f>
+      <c r="W5" s="11">
+        <f t="shared" ref="W5:W9" si="9">Q5/$Q$10*100%</f>
         <v>0.16</v>
       </c>
-      <c r="X5" s="13">
-        <f t="shared" ref="X5:X9" si="9">SUMIF($N$4:$N$9,"&lt;"&amp;N5,$Q$4:$Q$9)</f>
+      <c r="X5" s="10">
+        <f t="shared" ref="X5:X9" si="10">SUMIF($N$4:$N$9,"&lt;"&amp;N5,$Q$4:$Q$9)</f>
         <v>8</v>
       </c>
-      <c r="Y5" s="13">
-        <f t="shared" ref="Y5:Y9" si="10">SUMIF($N$4:$N$9,"&gt;="&amp;N5,$Q$4:$Q$9)</f>
+      <c r="Y5" s="10">
+        <f t="shared" ref="Y5:Y9" si="11">SUMIF($N$4:$N$9,"&gt;="&amp;N5,$Q$4:$Q$9)</f>
         <v>42</v>
       </c>
-      <c r="Z5" s="14">
-        <f t="shared" ref="Z5:Z9" si="11">SUMIF($N$4:$N$9,"&lt;"&amp;N5,$W$4:$W$9)</f>
+      <c r="Z5" s="11">
+        <f t="shared" ref="Z5:Z9" si="12">SUMIF($N$4:$N$9,"&lt;"&amp;N5,$W$4:$W$9)</f>
         <v>0.16</v>
       </c>
-      <c r="AA5" s="14">
-        <f t="shared" ref="AA5:AA9" si="12">SUMIF($N$4:$N$9,"&gt;="&amp;N5,$W$4:$W$9)</f>
+      <c r="AA5" s="11">
+        <f t="shared" ref="AA5:AA9" si="13">SUMIF($N$4:$N$9,"&gt;="&amp;N5,$W$4:$W$9)</f>
         <v>0.84000000000000008</v>
       </c>
-      <c r="AB5" s="13">
-        <f t="shared" ref="AB5:AB9" si="13">(N5+P5)/2</f>
+      <c r="AB5" s="10">
+        <f t="shared" ref="AB5:AB9" si="14">(N5+P5)/2</f>
         <v>54.5</v>
       </c>
-      <c r="AC5" s="13">
-        <f t="shared" ref="AC5:AC9" si="14">Q5*AB5</f>
+      <c r="AC5" s="10">
+        <f t="shared" ref="AC5:AC9" si="15">Q5*AB5</f>
         <v>436</v>
       </c>
-      <c r="AD5" s="13">
-        <f t="shared" ref="AD5:AD9" si="15">$AC$10/$Q$12</f>
-        <v>50</v>
-      </c>
-      <c r="AE5" s="13">
+      <c r="AD5" s="10">
+        <f t="shared" si="1"/>
+        <v>66.3</v>
+      </c>
+      <c r="AE5" s="10">
         <f t="shared" ref="AE5:AE9" si="16">AB5-AD5</f>
-        <v>4.5</v>
-      </c>
-      <c r="AF5" s="11">
+        <v>-11.799999999999997</v>
+      </c>
+      <c r="AF5" s="8">
         <f t="shared" ref="AF5:AF9" si="17">ABS(AE5)</f>
-        <v>4.5</v>
-      </c>
-      <c r="AG5" s="13">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="AH5" s="13">
+        <v>11.799999999999997</v>
+      </c>
+      <c r="AG5" s="10">
+        <f t="shared" si="2"/>
+        <v>94.399999999999977</v>
+      </c>
+      <c r="AH5" s="10">
         <f t="shared" ref="AH5:AH9" si="18">AF5^2</f>
-        <v>20.25</v>
-      </c>
-      <c r="AI5" s="13">
-        <f t="shared" si="2"/>
-        <v>162</v>
-      </c>
-      <c r="AJ5" s="13">
+        <v>139.23999999999992</v>
+      </c>
+      <c r="AI5" s="10">
+        <f t="shared" si="3"/>
+        <v>1113.9199999999994</v>
+      </c>
+      <c r="AJ5" s="10">
         <f t="shared" ref="AJ5:AJ9" si="19">AF5^3</f>
-        <v>91.125</v>
-      </c>
-      <c r="AK5" s="13">
+        <v>1643.0319999999988</v>
+      </c>
+      <c r="AK5" s="10">
         <f t="shared" ref="AK5:AK9" si="20">Q5*AJ5</f>
-        <v>729</v>
-      </c>
-      <c r="AL5" s="13">
+        <v>13144.25599999999</v>
+      </c>
+      <c r="AL5" s="10">
         <f t="shared" ref="AL5:AL9" si="21">AF5^4</f>
-        <v>410.0625</v>
-      </c>
-      <c r="AM5" s="13">
+        <v>19387.777599999979</v>
+      </c>
+      <c r="AM5" s="10">
         <f t="shared" ref="AM5:AM9" si="22">Q5*AL5</f>
-        <v>3280.5</v>
+        <v>155102.22079999984</v>
       </c>
     </row>
     <row r="6" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="N6" s="15">
+      <c r="N6" s="12">
         <f t="shared" ref="N6:N8" si="23">P5+1</f>
         <v>60</v>
       </c>
-      <c r="O6" s="16" t="s">
+      <c r="O6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="14">
         <f t="shared" ref="P6:P9" si="24">N6+9</f>
         <v>69</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="9">
         <v>13</v>
       </c>
-      <c r="R6" s="13">
+      <c r="R6" s="10">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="S6" s="10">
+        <f t="shared" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="T6" s="10">
+        <f t="shared" si="6"/>
+        <v>59.5</v>
+      </c>
+      <c r="U6" s="10">
+        <f t="shared" si="7"/>
+        <v>69.5</v>
+      </c>
+      <c r="V6" s="10">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="W6" s="11">
+        <f t="shared" si="9"/>
+        <v>0.26</v>
+      </c>
+      <c r="X6" s="10">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="Y6" s="10">
+        <f t="shared" si="11"/>
+        <v>34</v>
+      </c>
+      <c r="Z6" s="11">
+        <f t="shared" si="12"/>
+        <v>0.32</v>
+      </c>
+      <c r="AA6" s="11">
+        <f t="shared" si="13"/>
+        <v>0.68</v>
+      </c>
+      <c r="AB6" s="10">
+        <f t="shared" si="14"/>
+        <v>64.5</v>
+      </c>
+      <c r="AC6" s="10">
+        <f t="shared" si="15"/>
+        <v>838.5</v>
+      </c>
+      <c r="AD6" s="10">
+        <f t="shared" si="1"/>
+        <v>66.3</v>
+      </c>
+      <c r="AE6" s="10">
+        <f t="shared" si="16"/>
+        <v>-1.7999999999999972</v>
+      </c>
+      <c r="AF6" s="8">
+        <f t="shared" si="17"/>
+        <v>1.7999999999999972</v>
+      </c>
+      <c r="AG6" s="10">
+        <f t="shared" si="2"/>
+        <v>23.399999999999963</v>
+      </c>
+      <c r="AH6" s="10">
+        <f t="shared" si="18"/>
+        <v>3.2399999999999896</v>
+      </c>
+      <c r="AI6" s="10">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="S6" s="13">
-        <f t="shared" si="4"/>
-        <v>69</v>
-      </c>
-      <c r="T6" s="13">
-        <f t="shared" si="5"/>
-        <v>59.5</v>
-      </c>
-      <c r="U6" s="13">
-        <f t="shared" si="6"/>
-        <v>69.5</v>
-      </c>
-      <c r="V6" s="13">
-        <f t="shared" si="7"/>
-        <v>29</v>
-      </c>
-      <c r="W6" s="14">
-        <f t="shared" si="8"/>
-        <v>0.26</v>
-      </c>
-      <c r="X6" s="13">
-        <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="Y6" s="13">
-        <f t="shared" si="10"/>
-        <v>34</v>
-      </c>
-      <c r="Z6" s="14">
-        <f t="shared" si="11"/>
-        <v>0.32</v>
-      </c>
-      <c r="AA6" s="14">
-        <f t="shared" si="12"/>
-        <v>0.68</v>
-      </c>
-      <c r="AB6" s="13">
-        <f t="shared" si="13"/>
-        <v>64.5</v>
-      </c>
-      <c r="AC6" s="13">
-        <f t="shared" si="14"/>
-        <v>838.5</v>
-      </c>
-      <c r="AD6" s="13">
-        <f t="shared" si="15"/>
-        <v>50</v>
-      </c>
-      <c r="AE6" s="13">
-        <f t="shared" si="16"/>
-        <v>14.5</v>
-      </c>
-      <c r="AF6" s="11">
-        <f t="shared" si="17"/>
-        <v>14.5</v>
-      </c>
-      <c r="AG6" s="13">
-        <f t="shared" si="1"/>
-        <v>188.5</v>
-      </c>
-      <c r="AH6" s="13">
-        <f t="shared" si="18"/>
-        <v>210.25</v>
-      </c>
-      <c r="AI6" s="13">
-        <f t="shared" si="2"/>
-        <v>2733.25</v>
-      </c>
-      <c r="AJ6" s="13">
+        <v>42.119999999999862</v>
+      </c>
+      <c r="AJ6" s="10">
         <f t="shared" si="19"/>
-        <v>3048.625</v>
-      </c>
-      <c r="AK6" s="13">
+        <v>5.8319999999999723</v>
+      </c>
+      <c r="AK6" s="10">
         <f t="shared" si="20"/>
-        <v>39632.125</v>
-      </c>
-      <c r="AL6" s="13">
+        <v>75.815999999999633</v>
+      </c>
+      <c r="AL6" s="10">
         <f t="shared" si="21"/>
-        <v>44205.0625</v>
-      </c>
-      <c r="AM6" s="13">
+        <v>10.497599999999933</v>
+      </c>
+      <c r="AM6" s="10">
         <f t="shared" si="22"/>
-        <v>574665.8125</v>
-      </c>
-      <c r="AN6" s="23"/>
-      <c r="AO6" s="26"/>
+        <v>136.46879999999913</v>
+      </c>
+      <c r="AN6" s="18"/>
+      <c r="AO6" s="20"/>
     </row>
     <row r="7" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2745,107 +2738,107 @@
         <f>MAX(A1:J5)</f>
         <v>90</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7" s="12">
         <f t="shared" si="23"/>
         <v>70</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="O7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7" s="14">
         <f t="shared" si="24"/>
         <v>79</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="9">
         <v>11</v>
       </c>
-      <c r="R7" s="13">
+      <c r="R7" s="10">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="S7" s="10">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="T7" s="10">
+        <f t="shared" si="6"/>
+        <v>69.5</v>
+      </c>
+      <c r="U7" s="10">
+        <f t="shared" si="7"/>
+        <v>79.5</v>
+      </c>
+      <c r="V7" s="10">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="W7" s="11">
+        <f t="shared" si="9"/>
+        <v>0.22</v>
+      </c>
+      <c r="X7" s="10">
+        <f t="shared" si="10"/>
+        <v>29</v>
+      </c>
+      <c r="Y7" s="10">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="Z7" s="11">
+        <f t="shared" si="12"/>
+        <v>0.58000000000000007</v>
+      </c>
+      <c r="AA7" s="11">
+        <f t="shared" si="13"/>
+        <v>0.42</v>
+      </c>
+      <c r="AB7" s="10">
+        <f t="shared" si="14"/>
+        <v>74.5</v>
+      </c>
+      <c r="AC7" s="10">
+        <f t="shared" si="15"/>
+        <v>819.5</v>
+      </c>
+      <c r="AD7" s="10">
+        <f t="shared" si="1"/>
+        <v>66.3</v>
+      </c>
+      <c r="AE7" s="10">
+        <f t="shared" si="16"/>
+        <v>8.2000000000000028</v>
+      </c>
+      <c r="AF7" s="8">
+        <f t="shared" si="17"/>
+        <v>8.2000000000000028</v>
+      </c>
+      <c r="AG7" s="10">
+        <f t="shared" si="2"/>
+        <v>90.200000000000031</v>
+      </c>
+      <c r="AH7" s="10">
+        <f t="shared" si="18"/>
+        <v>67.240000000000052</v>
+      </c>
+      <c r="AI7" s="10">
         <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="S7" s="13">
-        <f t="shared" si="4"/>
-        <v>79</v>
-      </c>
-      <c r="T7" s="13">
-        <f t="shared" si="5"/>
-        <v>69.5</v>
-      </c>
-      <c r="U7" s="13">
-        <f t="shared" si="6"/>
-        <v>79.5</v>
-      </c>
-      <c r="V7" s="13">
-        <f t="shared" si="7"/>
-        <v>40</v>
-      </c>
-      <c r="W7" s="14">
-        <f t="shared" si="8"/>
-        <v>0.22</v>
-      </c>
-      <c r="X7" s="13">
-        <f t="shared" si="9"/>
-        <v>29</v>
-      </c>
-      <c r="Y7" s="13">
-        <f t="shared" si="10"/>
-        <v>21</v>
-      </c>
-      <c r="Z7" s="14">
-        <f t="shared" si="11"/>
-        <v>0.58000000000000007</v>
-      </c>
-      <c r="AA7" s="14">
-        <f t="shared" si="12"/>
-        <v>0.42</v>
-      </c>
-      <c r="AB7" s="13">
-        <f t="shared" si="13"/>
-        <v>74.5</v>
-      </c>
-      <c r="AC7" s="13">
-        <f t="shared" si="14"/>
-        <v>819.5</v>
-      </c>
-      <c r="AD7" s="13">
-        <f t="shared" si="15"/>
-        <v>50</v>
-      </c>
-      <c r="AE7" s="13">
-        <f t="shared" si="16"/>
-        <v>24.5</v>
-      </c>
-      <c r="AF7" s="11">
-        <f t="shared" si="17"/>
-        <v>24.5</v>
-      </c>
-      <c r="AG7" s="13">
-        <f t="shared" si="1"/>
-        <v>269.5</v>
-      </c>
-      <c r="AH7" s="13">
-        <f t="shared" si="18"/>
-        <v>600.25</v>
-      </c>
-      <c r="AI7" s="13">
-        <f t="shared" si="2"/>
-        <v>6602.75</v>
-      </c>
-      <c r="AJ7" s="13">
+        <v>739.64000000000055</v>
+      </c>
+      <c r="AJ7" s="10">
         <f t="shared" si="19"/>
-        <v>14706.125</v>
-      </c>
-      <c r="AK7" s="13">
+        <v>551.36800000000062</v>
+      </c>
+      <c r="AK7" s="10">
         <f t="shared" si="20"/>
-        <v>161767.375</v>
-      </c>
-      <c r="AL7" s="13">
+        <v>6065.0480000000071</v>
+      </c>
+      <c r="AL7" s="10">
         <f t="shared" si="21"/>
-        <v>360300.0625</v>
-      </c>
-      <c r="AM7" s="13">
+        <v>4521.2176000000072</v>
+      </c>
+      <c r="AM7" s="10">
         <f t="shared" si="22"/>
-        <v>3963300.6875</v>
+        <v>49733.393600000083</v>
       </c>
     </row>
     <row r="8" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
@@ -2862,107 +2855,107 @@
       <c r="L8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="12">
         <f t="shared" si="23"/>
         <v>80</v>
       </c>
-      <c r="O8" s="16" t="s">
+      <c r="O8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="18">
+      <c r="P8" s="14">
         <f t="shared" si="24"/>
         <v>89</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="9">
         <v>8</v>
       </c>
-      <c r="R8" s="13">
+      <c r="R8" s="10">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="S8" s="10">
+        <f t="shared" si="5"/>
+        <v>89</v>
+      </c>
+      <c r="T8" s="10">
+        <f t="shared" si="6"/>
+        <v>79.5</v>
+      </c>
+      <c r="U8" s="10">
+        <f t="shared" si="7"/>
+        <v>89.5</v>
+      </c>
+      <c r="V8" s="10">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="W8" s="11">
+        <f t="shared" si="9"/>
+        <v>0.16</v>
+      </c>
+      <c r="X8" s="10">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="Y8" s="10">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="Z8" s="11">
+        <f t="shared" si="12"/>
+        <v>0.8</v>
+      </c>
+      <c r="AA8" s="11">
+        <f t="shared" si="13"/>
+        <v>0.2</v>
+      </c>
+      <c r="AB8" s="10">
+        <f t="shared" si="14"/>
+        <v>84.5</v>
+      </c>
+      <c r="AC8" s="10">
+        <f t="shared" si="15"/>
+        <v>676</v>
+      </c>
+      <c r="AD8" s="10">
+        <f t="shared" si="1"/>
+        <v>66.3</v>
+      </c>
+      <c r="AE8" s="10">
+        <f t="shared" si="16"/>
+        <v>18.200000000000003</v>
+      </c>
+      <c r="AF8" s="8">
+        <f t="shared" si="17"/>
+        <v>18.200000000000003</v>
+      </c>
+      <c r="AG8" s="10">
+        <f t="shared" si="2"/>
+        <v>145.60000000000002</v>
+      </c>
+      <c r="AH8" s="10">
+        <f t="shared" si="18"/>
+        <v>331.24000000000012</v>
+      </c>
+      <c r="AI8" s="10">
         <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="S8" s="13">
-        <f t="shared" si="4"/>
-        <v>89</v>
-      </c>
-      <c r="T8" s="13">
-        <f t="shared" si="5"/>
-        <v>79.5</v>
-      </c>
-      <c r="U8" s="13">
-        <f t="shared" si="6"/>
-        <v>89.5</v>
-      </c>
-      <c r="V8" s="13">
-        <f t="shared" si="7"/>
-        <v>48</v>
-      </c>
-      <c r="W8" s="14">
-        <f t="shared" si="8"/>
-        <v>0.16</v>
-      </c>
-      <c r="X8" s="13">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="Y8" s="13">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="Z8" s="14">
-        <f t="shared" si="11"/>
-        <v>0.8</v>
-      </c>
-      <c r="AA8" s="14">
-        <f t="shared" si="12"/>
-        <v>0.2</v>
-      </c>
-      <c r="AB8" s="13">
-        <f t="shared" si="13"/>
-        <v>84.5</v>
-      </c>
-      <c r="AC8" s="13">
-        <f t="shared" si="14"/>
-        <v>676</v>
-      </c>
-      <c r="AD8" s="13">
-        <f t="shared" si="15"/>
-        <v>50</v>
-      </c>
-      <c r="AE8" s="13">
-        <f t="shared" si="16"/>
-        <v>34.5</v>
-      </c>
-      <c r="AF8" s="11">
-        <f t="shared" si="17"/>
-        <v>34.5</v>
-      </c>
-      <c r="AG8" s="13">
-        <f t="shared" si="1"/>
-        <v>276</v>
-      </c>
-      <c r="AH8" s="13">
-        <f t="shared" si="18"/>
-        <v>1190.25</v>
-      </c>
-      <c r="AI8" s="13">
-        <f t="shared" si="2"/>
-        <v>9522</v>
-      </c>
-      <c r="AJ8" s="13">
+        <v>2649.920000000001</v>
+      </c>
+      <c r="AJ8" s="10">
         <f t="shared" si="19"/>
-        <v>41063.625</v>
-      </c>
-      <c r="AK8" s="13">
+        <v>6028.5680000000029</v>
+      </c>
+      <c r="AK8" s="10">
         <f t="shared" si="20"/>
-        <v>328509</v>
-      </c>
-      <c r="AL8" s="13">
+        <v>48228.544000000024</v>
+      </c>
+      <c r="AL8" s="10">
         <f t="shared" si="21"/>
-        <v>1416695.0625</v>
-      </c>
-      <c r="AM8" s="13">
+        <v>109719.93760000008</v>
+      </c>
+      <c r="AM8" s="10">
         <f t="shared" si="22"/>
-        <v>11333560.5</v>
+        <v>877759.50080000062</v>
       </c>
     </row>
     <row r="9" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
@@ -2973,107 +2966,107 @@
         <f>COUNTIF($A$1:$J$5,"="&amp;K9)</f>
         <v>3</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="12">
         <f>P8+1</f>
         <v>90</v>
       </c>
-      <c r="O9" s="16" t="s">
+      <c r="O9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="18">
+      <c r="P9" s="14">
         <f t="shared" si="24"/>
         <v>99</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="9">
         <v>2</v>
       </c>
-      <c r="R9" s="13">
+      <c r="R9" s="10">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="S9" s="10">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="T9" s="10">
+        <f t="shared" si="6"/>
+        <v>89.5</v>
+      </c>
+      <c r="U9" s="10">
+        <f t="shared" si="7"/>
+        <v>99.5</v>
+      </c>
+      <c r="V9" s="10">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="W9" s="11">
+        <f t="shared" si="9"/>
+        <v>0.04</v>
+      </c>
+      <c r="X9" s="10">
+        <f t="shared" si="10"/>
+        <v>48</v>
+      </c>
+      <c r="Y9" s="10">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="Z9" s="11">
+        <f t="shared" si="12"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="AA9" s="11">
+        <f t="shared" si="13"/>
+        <v>0.04</v>
+      </c>
+      <c r="AB9" s="10">
+        <f t="shared" si="14"/>
+        <v>94.5</v>
+      </c>
+      <c r="AC9" s="10">
+        <f t="shared" si="15"/>
+        <v>189</v>
+      </c>
+      <c r="AD9" s="10">
+        <f>$AC$10/$Q$10</f>
+        <v>66.3</v>
+      </c>
+      <c r="AE9" s="10">
+        <f t="shared" si="16"/>
+        <v>28.200000000000003</v>
+      </c>
+      <c r="AF9" s="8">
+        <f t="shared" si="17"/>
+        <v>28.200000000000003</v>
+      </c>
+      <c r="AG9" s="10">
+        <f t="shared" si="2"/>
+        <v>56.400000000000006</v>
+      </c>
+      <c r="AH9" s="10">
+        <f t="shared" si="18"/>
+        <v>795.24000000000012</v>
+      </c>
+      <c r="AI9" s="10">
         <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="S9" s="13">
-        <f t="shared" si="4"/>
-        <v>99</v>
-      </c>
-      <c r="T9" s="13">
-        <f t="shared" si="5"/>
-        <v>89.5</v>
-      </c>
-      <c r="U9" s="13">
-        <f t="shared" si="6"/>
-        <v>99.5</v>
-      </c>
-      <c r="V9" s="13">
-        <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="W9" s="14">
-        <f t="shared" si="8"/>
-        <v>0.04</v>
-      </c>
-      <c r="X9" s="13">
-        <f t="shared" si="9"/>
-        <v>48</v>
-      </c>
-      <c r="Y9" s="13">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="Z9" s="14">
-        <f t="shared" si="11"/>
-        <v>0.96000000000000008</v>
-      </c>
-      <c r="AA9" s="14">
-        <f t="shared" si="12"/>
-        <v>0.04</v>
-      </c>
-      <c r="AB9" s="13">
-        <f t="shared" si="13"/>
-        <v>94.5</v>
-      </c>
-      <c r="AC9" s="13">
-        <f t="shared" si="14"/>
-        <v>189</v>
-      </c>
-      <c r="AD9" s="13">
-        <f t="shared" si="15"/>
-        <v>50</v>
-      </c>
-      <c r="AE9" s="13">
-        <f t="shared" si="16"/>
-        <v>44.5</v>
-      </c>
-      <c r="AF9" s="11">
-        <f t="shared" si="17"/>
-        <v>44.5</v>
-      </c>
-      <c r="AG9" s="13">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="AH9" s="13">
-        <f t="shared" si="18"/>
-        <v>1980.25</v>
-      </c>
-      <c r="AI9" s="13">
-        <f t="shared" si="2"/>
-        <v>3960.5</v>
-      </c>
-      <c r="AJ9" s="13">
+        <v>1590.4800000000002</v>
+      </c>
+      <c r="AJ9" s="10">
         <f t="shared" si="19"/>
-        <v>88121.125</v>
-      </c>
-      <c r="AK9" s="13">
+        <v>22425.768000000007</v>
+      </c>
+      <c r="AK9" s="10">
         <f t="shared" si="20"/>
-        <v>176242.25</v>
-      </c>
-      <c r="AL9" s="13">
+        <v>44851.536000000015</v>
+      </c>
+      <c r="AL9" s="10">
         <f t="shared" si="21"/>
-        <v>3921390.0625</v>
-      </c>
-      <c r="AM9" s="13">
+        <v>632406.65760000015</v>
+      </c>
+      <c r="AM9" s="10">
         <f t="shared" si="22"/>
-        <v>7842780.125</v>
+        <v>1264813.3152000003</v>
       </c>
     </row>
     <row r="10" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
@@ -3084,34 +3077,34 @@
         <f t="shared" ref="L10:L19" si="25">COUNTIF($A$1:$J$5,"="&amp;K10)</f>
         <v>5</v>
       </c>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
       <c r="Q10">
         <f>SUM(Q4:Q9)</f>
         <v>50</v>
       </c>
-      <c r="AC10" s="19">
+      <c r="AC10" s="15">
         <f>SUM(AC4:AC9)</f>
         <v>3315</v>
       </c>
-      <c r="AG10" s="19">
+      <c r="AG10" s="15">
         <f>SUM(AG4:AG9)</f>
-        <v>903</v>
-      </c>
-      <c r="AI10" s="19">
+        <v>584.4</v>
+      </c>
+      <c r="AI10" s="15">
         <f>SUM(AI4:AI9)</f>
-        <v>23222.5</v>
-      </c>
-      <c r="AK10" s="19">
+        <v>9938</v>
+      </c>
+      <c r="AK10" s="15">
         <f>SUM(AK4:AK9)</f>
-        <v>708210.75</v>
-      </c>
-      <c r="AM10" s="19">
+        <v>195247.05600000004</v>
+      </c>
+      <c r="AM10" s="15">
         <f>SUM(AM4:AM9)</f>
-        <v>23724908.125</v>
+        <v>4154369.3600000003</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
@@ -3132,7 +3125,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="Q12">
         <f>AC10/Q10</f>
@@ -3183,28 +3176,28 @@
         <f t="shared" si="25"/>
         <v>6</v>
       </c>
-      <c r="Q17" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="R17" s="22"/>
-      <c r="T17" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="U17" s="24"/>
-      <c r="W17" s="27" t="s">
+      <c r="Q17" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="R17" s="28"/>
+      <c r="T17" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="U17" s="29"/>
+      <c r="W17" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="28" t="s">
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD17" s="29"/>
+      <c r="AD17" s="23"/>
     </row>
     <row r="18" spans="11:30" ht="18.75" x14ac:dyDescent="0.35">
       <c r="K18" s="1">
@@ -3214,40 +3207,40 @@
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
-      <c r="Q18" s="20" t="s">
-        <v>32</v>
+      <c r="Q18" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="R18">
         <f>Q10/2</f>
         <v>25</v>
       </c>
-      <c r="T18" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="U18" s="20">
+      <c r="T18" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="U18" s="16">
         <f>MAX(Q4:Q9)</f>
         <v>13</v>
       </c>
-      <c r="W18" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="X18" s="20">
+      <c r="W18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="X18" s="16">
         <f>(1*$Q$10)/4</f>
         <v>12.5</v>
       </c>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA18" s="20">
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA18" s="16">
         <f>(1*$Q$10)/10</f>
         <v>5</v>
       </c>
-      <c r="AB18" s="20"/>
-      <c r="AC18" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD18" s="20">
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD18" s="16">
         <f>(1*$Q$10)/100</f>
         <v>0.5</v>
       </c>
@@ -3260,40 +3253,40 @@
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
-      <c r="Q19" s="20" t="s">
-        <v>33</v>
+      <c r="Q19" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="R19">
         <f>T6</f>
         <v>59.5</v>
       </c>
-      <c r="T19" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="U19" s="20">
+      <c r="T19" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="U19" s="16">
         <f>T6</f>
         <v>59.5</v>
       </c>
-      <c r="W19" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="X19" s="20">
+      <c r="W19" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="X19" s="16">
         <f>T5</f>
         <v>49.5</v>
       </c>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA19" s="20">
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA19" s="16">
         <f>T4</f>
         <v>39.5</v>
       </c>
-      <c r="AB19" s="20"/>
-      <c r="AC19" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD19" s="20">
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD19" s="16">
         <f>T4</f>
         <v>39.5</v>
       </c>
@@ -3303,117 +3296,117 @@
         <f>SUM(L9:L19)</f>
         <v>50</v>
       </c>
-      <c r="Q20" s="20" t="s">
-        <v>34</v>
+      <c r="Q20" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="R20">
         <f>Q6</f>
         <v>13</v>
       </c>
-      <c r="T20" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="U20" s="20">
+      <c r="T20" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="U20" s="16">
         <f>Q6-Q5</f>
         <v>5</v>
       </c>
-      <c r="W20" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="X20" s="20">
+      <c r="W20" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X20" s="16">
         <f>Q5</f>
         <v>8</v>
       </c>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA20" s="20">
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA20" s="16">
         <f>Q4</f>
         <v>8</v>
       </c>
-      <c r="AB20" s="20"/>
-      <c r="AC20" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD20" s="20">
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD20" s="16">
         <f>Q4</f>
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="11:30" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="Q21" s="20" t="s">
-        <v>35</v>
+      <c r="Q21" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="R21">
         <f>(P4-N4)+1</f>
         <v>10</v>
       </c>
-      <c r="T21" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="U21" s="20">
+      <c r="T21" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="U21" s="16">
         <f>Q6-Q7</f>
         <v>2</v>
       </c>
-      <c r="W21" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="X21" s="20">
+      <c r="W21" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="X21" s="16">
         <f>R21</f>
         <v>10</v>
       </c>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA21" s="20">
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA21" s="16">
         <f>R21</f>
         <v>10</v>
       </c>
-      <c r="AB21" s="20"/>
-      <c r="AC21" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD21" s="20">
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD21" s="16">
         <f>R21</f>
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="11:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q22" s="21" t="s">
-        <v>36</v>
+      <c r="Q22" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="R22">
         <f>X6</f>
         <v>16</v>
       </c>
-      <c r="T22" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="U22" s="20">
+      <c r="T22" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="U22" s="16">
         <f>R21</f>
         <v>10</v>
       </c>
-      <c r="W22" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="X22" s="20">
+      <c r="W22" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X22" s="16">
         <f>V4</f>
         <v>8</v>
       </c>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA22" s="20">
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA22" s="16">
         <v>0</v>
       </c>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD22" s="20">
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD22" s="16">
         <f>0</f>
         <v>0</v>
       </c>
@@ -3427,130 +3420,130 @@
         <f>R19+((R18-R22)/R20)*R21</f>
         <v>66.42307692307692</v>
       </c>
-      <c r="T23" s="20" t="str">
+      <c r="T23" s="16" t="str">
         <f>T17</f>
         <v>Modus</v>
       </c>
-      <c r="U23" s="20">
+      <c r="U23" s="16">
         <f>U19+((U20/(U20+U21))*U22)</f>
         <v>66.642857142857139</v>
       </c>
-      <c r="W23" s="20" t="str">
+      <c r="W23" s="16" t="str">
         <f>W17</f>
         <v>Kuartil 1</v>
       </c>
-      <c r="X23" s="20">
+      <c r="X23" s="16">
         <f>X19+((X18-X22)/X20)*X21</f>
         <v>55.125</v>
       </c>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20" t="str">
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16" t="str">
         <f>Z17</f>
         <v>Desil 1</v>
       </c>
-      <c r="AA23" s="20">
+      <c r="AA23" s="16">
         <f>AA19+((AA18-AA22)/AA20)*AA21</f>
         <v>45.75</v>
       </c>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="20" t="str">
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16" t="str">
         <f>AC17</f>
         <v>Prentil 1</v>
       </c>
-      <c r="AD23" s="20">
+      <c r="AD23" s="16">
         <f>AD19+((AD18-AD22)/AD20)*AD21</f>
         <v>40.125</v>
       </c>
     </row>
     <row r="27" spans="11:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20">
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16">
         <f>AC10/Q10</f>
         <v>66.3</v>
       </c>
     </row>
     <row r="28" spans="11:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20">
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16">
         <f>AG10/Q10</f>
-        <v>18.059999999999999</v>
+        <v>11.687999999999999</v>
       </c>
     </row>
     <row r="29" spans="11:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20">
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16">
         <f>(1/(Q10-1))*AI10</f>
-        <v>473.92857142857139</v>
+        <v>202.81632653061223</v>
       </c>
     </row>
     <row r="30" spans="11:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20">
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16">
         <f>SQRT(U29)</f>
-        <v>21.769900583800823</v>
+        <v>14.241359714950404</v>
       </c>
     </row>
     <row r="33" spans="17:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q33" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="20">
+      <c r="Q33" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16">
         <f>(1/(($Q$10*$U$30)^3))*AK10</f>
-        <v>5.4914010747668547E-4</v>
-      </c>
-      <c r="W33" s="20" t="str">
+        <v>5.4077936636264087E-4</v>
+      </c>
+      <c r="W33" s="16" t="str">
         <f>IF(V33&lt;0,"Distribusi data miring ke kiri",IF(V33&gt;0,"Distribusi data miring ke kanan","Distribusi data simetris"))</f>
         <v>Distribusi data miring ke kanan</v>
       </c>
-      <c r="X33" s="20"/>
-      <c r="Y33" s="20"/>
-      <c r="Z33" s="20"/>
-      <c r="AA33" s="20"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
     </row>
     <row r="34" spans="17:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q34" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20">
+      <c r="Q34" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16">
         <f>(1/(($Q$10*$U$30)^4))*AM10</f>
-        <v>1.6900468305082149E-5</v>
-      </c>
-      <c r="W34" s="20" t="str">
+        <v>1.6159177981545553E-5</v>
+      </c>
+      <c r="W34" s="16" t="str">
         <f>IF(V34&lt;3,"Distribusi keruncingan data disebut platikurtis",IF(V34&gt;3,"Distribusi kemiringan data disebut leptokurtis","Distribusi keruncingan data disebut mesokurtis"))</f>
         <v>Distribusi keruncingan data disebut platikurtis</v>
       </c>
-      <c r="X34" s="20"/>
-      <c r="Y34" s="20"/>
-      <c r="Z34" s="20"/>
-      <c r="AA34" s="20"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3566,4 +3559,16 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>